--- a/docs/StructureDefinition-cibmtr-medication-dispense.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-dispense.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T15:12:35-05:00</t>
+    <t>2022-08-09T16:48:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-dispense.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-dispense.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T16:48:03-05:00</t>
+    <t>2022-08-09T17:12:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-dispense.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-dispense.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T17:12:26-05:00</t>
+    <t>2022-08-10T08:52:57-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-dispense.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-dispense.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T08:52:57-05:00</t>
+    <t>2022-08-10T09:42:24-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-dispense.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-dispense.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T09:42:24-05:00</t>
+    <t>2022-08-10T09:52:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-dispense.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-dispense.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T09:52:13-05:00</t>
+    <t>2022-08-10T12:44:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-dispense.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-dispense.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T12:44:20-05:00</t>
+    <t>2022-08-10T13:05:09-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-dispense.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-dispense.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T13:05:09-05:00</t>
+    <t>2022-08-10T13:28:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-dispense.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-dispense.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T13:28:25-05:00</t>
+    <t>2022-08-11T16:57:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-dispense.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-dispense.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4a</t>
+    <t>0.1.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T16:57:48-05:00</t>
+    <t>2022-08-24T16:05:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cibmtr-medication-dispense.xlsx
+++ b/docs/StructureDefinition-cibmtr-medication-dispense.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T16:05:20-05:00</t>
+    <t>2022-08-31T14:35:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
